--- a/benchmark_commercial/synthesis/AI_results_CORTEXM0DS.xlsx
+++ b/benchmark_commercial/synthesis/AI_results_CORTEXM0DS.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Documents\GitHub\keras-scl\data\benchmark\benchmark_commercial\synthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{221F7227-0055-4DCF-86A5-22C6CD936B84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367EC863-F118-4B59-A008-A117D740CEB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AI_results_CORTEXM0DS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="13">
   <si>
     <t>Vth</t>
   </si>
@@ -60,32 +68,11 @@
   <si>
     <t>svt</t>
   </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>nearest</t>
-  </si>
-  <si>
-    <t>corresponding</t>
-  </si>
-  <si>
-    <t>freq</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,11 +927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,48 +982,6 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1078,66 +1023,24 @@
       <c r="M2">
         <v>1156</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="S2" s="1">
-        <f>AVERAGE(J2:J21)</f>
-        <v>11581.85</v>
-      </c>
-      <c r="T2" s="1">
-        <f t="shared" ref="T2:V2" si="0">AVERAGE(K2:K21)</f>
-        <v>922</v>
-      </c>
-      <c r="U2" s="1">
-        <f t="shared" si="0"/>
-        <v>12503.85</v>
-      </c>
-      <c r="V2" s="1">
-        <f t="shared" si="0"/>
-        <v>1984.3</v>
-      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1">
-        <f t="array" ref="Y2">INDEX(J2:J21, MATCH(MIN(ABS(J2:J21-S2)), ABS(J2:J21-S2), 0))</f>
-        <v>11783</v>
-      </c>
-      <c r="Z2" s="1">
-        <f t="array" ref="Z2">INDEX(K2:K21, MATCH(MIN(ABS(K2:K21-T2)), ABS(K2:K21-T2), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA2" s="1">
-        <f t="array" ref="AA2">INDEX(L2:L21, MATCH(MIN(ABS(L2:L21-U2)), ABS(L2:L21-U2), 0))</f>
-        <v>12705</v>
-      </c>
-      <c r="AB2" s="1">
-        <f t="array" ref="AB2">INDEX(M2:M21, MATCH(MIN(ABS(M2:M21-V2)), ABS(M2:M21-V2), 0))</f>
-        <v>2059</v>
-      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE2" s="1">
-        <f>INDEX(D2:D21, MATCH(Y2,J2:J21, FALSE), 1)</f>
-        <v>954800000</v>
-      </c>
-      <c r="AF2" s="1">
-        <f>INDEX(D2:D21, MATCH(Z2,K2:K21, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG2" s="1">
-        <f>INDEX(D2:D21, MATCH(AA2,L2:L21, FALSE), 1)</f>
-        <v>954800000</v>
-      </c>
-      <c r="AH2" s="1">
-        <f>INDEX(D2:D21, MATCH(AB2,M2:M21, FALSE), 1)</f>
-        <v>954800000</v>
-      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1180,61 +1083,23 @@
         <v>911</v>
       </c>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S3" s="1">
-        <f>AVERAGE(J22:J41)</f>
-        <v>12479.6</v>
-      </c>
-      <c r="T3" s="1">
-        <f t="shared" ref="T3:V3" si="1">AVERAGE(K22:K41)</f>
-        <v>922</v>
-      </c>
-      <c r="U3" s="1">
-        <f t="shared" si="1"/>
-        <v>13401.6</v>
-      </c>
-      <c r="V3" s="1">
-        <f t="shared" si="1"/>
-        <v>2332.85</v>
-      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="1">
-        <f t="array" ref="Y3">INDEX(J22:J41, MATCH(MIN(ABS(J22:J41-S3)), ABS(J22:J41-S3), 0))</f>
-        <v>12686</v>
-      </c>
-      <c r="Z3" s="1">
-        <f t="array" ref="Z3">INDEX(K22:K41, MATCH(MIN(ABS(K22:K41-T3)), ABS(K22:K41-T3), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA3" s="1">
-        <f t="array" ref="AA3">INDEX(L22:L41, MATCH(MIN(ABS(L22:L41-U3)), ABS(L22:L41-U3), 0))</f>
-        <v>13608</v>
-      </c>
-      <c r="AB3" s="1">
-        <f t="array" ref="AB3">INDEX(M22:M41, MATCH(MIN(ABS(M22:M41-V3)), ABS(M22:M41-V3), 0))</f>
-        <v>2336</v>
-      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="1">
-        <f>INDEX(D22:D41, MATCH(Y3,J22:J41, FALSE), 1)</f>
-        <v>150800000</v>
-      </c>
-      <c r="AF3" s="1">
-        <f>INDEX(D22:D41, MATCH(Z3,K22:K41, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG3" s="1">
-        <f>INDEX(D22:D41, MATCH(AA3,L22:L41, FALSE), 1)</f>
-        <v>150800000</v>
-      </c>
-      <c r="AH3" s="1">
-        <f>INDEX(D22:D41, MATCH(AB3,M22:M41, FALSE), 1)</f>
-        <v>150800000</v>
-      </c>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1277,61 +1142,23 @@
         <v>1001</v>
       </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="S4" s="1">
-        <f>AVERAGE(J42:J61)</f>
-        <v>12083.6</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" ref="T4:V4" si="2">AVERAGE(K42:K61)</f>
-        <v>922</v>
-      </c>
-      <c r="U4" s="1">
-        <f t="shared" si="2"/>
-        <v>13005.6</v>
-      </c>
-      <c r="V4" s="1">
-        <f t="shared" si="2"/>
-        <v>2454.6999999999998</v>
-      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1">
-        <f t="array" ref="Y4">INDEX(J42:J61, MATCH(MIN(ABS(J42:J61-S4)), ABS(J42:J61-S4), 0))</f>
-        <v>12175</v>
-      </c>
-      <c r="Z4" s="1">
-        <f t="array" ref="Z4">INDEX(K42:K61, MATCH(MIN(ABS(K42:K61-T4)), ABS(K42:K61-T4), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA4" s="1">
-        <f t="array" ref="AA4">INDEX(L42:L61, MATCH(MIN(ABS(L42:L61-U4)), ABS(L42:L61-U4), 0))</f>
-        <v>13097</v>
-      </c>
-      <c r="AB4" s="1">
-        <f t="array" ref="AB4">INDEX(M42:M61, MATCH(MIN(ABS(M42:M61-V4)), ABS(M42:M61-V4), 0))</f>
-        <v>2461</v>
-      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="1">
-        <f>INDEX(D42:D61, MATCH(Y4,J42:J61, FALSE), 1)</f>
-        <v>301600000</v>
-      </c>
-      <c r="AF4" s="1">
-        <f>INDEX(D42:D61, MATCH(Z4,K42:K61, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG4" s="1">
-        <f>INDEX(D42:D61, MATCH(AA4,L42:L61, FALSE), 1)</f>
-        <v>301600000</v>
-      </c>
-      <c r="AH4" s="1">
-        <f>INDEX(D42:D61, MATCH(AB4,M42:M61, FALSE), 1)</f>
-        <v>502600000</v>
-      </c>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
     </row>
     <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1374,61 +1201,23 @@
         <v>1146</v>
       </c>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="S5" s="2">
-        <f>AVERAGE(J62:J81)</f>
-        <v>12193.15</v>
-      </c>
-      <c r="T5" s="2">
-        <f t="shared" ref="T5:V5" si="3">AVERAGE(K62:K81)</f>
-        <v>922</v>
-      </c>
-      <c r="U5" s="2">
-        <f t="shared" si="3"/>
-        <v>13115.15</v>
-      </c>
-      <c r="V5" s="2">
-        <f t="shared" si="3"/>
-        <v>2726.9</v>
-      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <f t="array" ref="Y5">INDEX(J62:J81, MATCH(MIN(ABS(J62:J81-S5)), ABS(J62:J81-S5), 0))</f>
-        <v>12194</v>
-      </c>
-      <c r="Z5" s="2">
-        <f t="array" ref="Z5">INDEX(K62:K81, MATCH(MIN(ABS(K62:K81-T5)), ABS(K62:K81-T5), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA5" s="2">
-        <f t="array" ref="AA5">INDEX(L62:L81, MATCH(MIN(ABS(L62:L81-U5)), ABS(L62:L81-U5), 0))</f>
-        <v>13116</v>
-      </c>
-      <c r="AB5" s="2">
-        <f t="array" ref="AB5">INDEX(M62:M81, MATCH(MIN(ABS(M62:M81-V5)), ABS(M62:M81-V5), 0))</f>
-        <v>2745</v>
-      </c>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <f>INDEX(D62:D81, MATCH(Y5,J62:J81, FALSE), 1)</f>
-        <v>201100000</v>
-      </c>
-      <c r="AF5" s="2">
-        <f>INDEX(D62:D81, MATCH(Z5,K62:K81, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG5" s="2">
-        <f>INDEX(D62:D81, MATCH(AA5,L62:L81, FALSE), 1)</f>
-        <v>201100000</v>
-      </c>
-      <c r="AH5" s="2">
-        <f>INDEX(D62:D81, MATCH(AB5,M62:M81, FALSE), 1)</f>
-        <v>603100000</v>
-      </c>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1470,64 +1259,24 @@
       <c r="M6">
         <v>1260</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="S6" s="3">
-        <f>AVERAGE(J82:J101)</f>
-        <v>11149.75</v>
-      </c>
-      <c r="T6" s="3">
-        <f t="shared" ref="T6:V6" si="4">AVERAGE(K82:K101)</f>
-        <v>922</v>
-      </c>
-      <c r="U6" s="3">
-        <f t="shared" si="4"/>
-        <v>12071.75</v>
-      </c>
-      <c r="V6" s="3">
-        <f t="shared" si="4"/>
-        <v>2091.65</v>
-      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="3">
-        <f t="array" ref="Y6">INDEX(J82:J101, MATCH(MIN(ABS(J82:J101-S6)), ABS(J82:J101-S6), 0))</f>
-        <v>11682</v>
-      </c>
-      <c r="Z6" s="3">
-        <f t="array" ref="Z6">INDEX(K82:K101, MATCH(MIN(ABS(K82:K101-T6)), ABS(K82:K101-T6), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA6" s="3">
-        <f t="array" ref="AA6">INDEX(L82:L101, MATCH(MIN(ABS(L82:L101-U6)), ABS(L82:L101-U6), 0))</f>
-        <v>12604</v>
-      </c>
-      <c r="AB6" s="3">
-        <f t="array" ref="AB6">INDEX(M82:M101, MATCH(MIN(ABS(M82:M101-V6)), ABS(M82:M101-V6), 0))</f>
-        <v>2330</v>
-      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="3">
-        <f>INDEX(D82:D101, MATCH(Y6,J82:J101, FALSE), 1)</f>
-        <v>653300000</v>
-      </c>
-      <c r="AF6" s="3">
-        <f>INDEX(D82:D101, MATCH(Z6,K82:K101, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG6" s="3">
-        <f>INDEX(D82:D101, MATCH(AA6,L82:L101, FALSE), 1)</f>
-        <v>653300000</v>
-      </c>
-      <c r="AH6" s="3">
-        <f>INDEX(D82:D101, MATCH(AB6,M82:M101, FALSE), 1)</f>
-        <v>653300000</v>
-      </c>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1570,61 +1319,23 @@
         <v>1397</v>
       </c>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S7" s="1">
-        <f>AVERAGE(J102:J121)</f>
-        <v>12242.55</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" ref="T7:V7" si="5">AVERAGE(K102:K121)</f>
-        <v>922</v>
-      </c>
-      <c r="U7" s="1">
-        <f t="shared" si="5"/>
-        <v>13164.55</v>
-      </c>
-      <c r="V7" s="1">
-        <f t="shared" si="5"/>
-        <v>2247.3000000000002</v>
-      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1">
-        <f t="array" ref="Y7">INDEX(J102:J121, MATCH(MIN(ABS(J102:J121-S7)), ABS(J102:J121-S7), 0))</f>
-        <v>12343</v>
-      </c>
-      <c r="Z7" s="1">
-        <f t="array" ref="Z7">INDEX(K102:K121, MATCH(MIN(ABS(K102:K121-T7)), ABS(K102:K121-T7), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA7" s="1">
-        <f t="array" ref="AA7">INDEX(L102:L121, MATCH(MIN(ABS(L102:L121-U7)), ABS(L102:L121-U7), 0))</f>
-        <v>13265</v>
-      </c>
-      <c r="AB7" s="1">
-        <f t="array" ref="AB7">INDEX(M102:M121, MATCH(MIN(ABS(M102:M121-V7)), ABS(M102:M121-V7), 0))</f>
-        <v>2264</v>
-      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="1">
-        <f>INDEX(D102:D121, MATCH(Y7,J102:J121, FALSE), 1)</f>
-        <v>804000000</v>
-      </c>
-      <c r="AF7" s="1">
-        <f>INDEX(D102:D121, MATCH(Z7,K102:K121, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG7" s="1">
-        <f>INDEX(D102:D121, MATCH(AA7,L102:L121, FALSE), 1)</f>
-        <v>804000000</v>
-      </c>
-      <c r="AH7" s="1">
-        <f>INDEX(D102:D121, MATCH(AB7,M102:M121, FALSE), 1)</f>
-        <v>804000000</v>
-      </c>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1667,61 +1378,23 @@
         <v>1672</v>
       </c>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="S8" s="1">
-        <f>AVERAGE(J122:J141)</f>
-        <v>12657</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" ref="T8:V8" si="6">AVERAGE(K122:K141)</f>
-        <v>922</v>
-      </c>
-      <c r="U8" s="1">
-        <f t="shared" si="6"/>
-        <v>13579</v>
-      </c>
-      <c r="V8" s="1">
-        <f t="shared" si="6"/>
-        <v>2409.6999999999998</v>
-      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1">
-        <f t="array" ref="Y8">INDEX(J122:J141, MATCH(MIN(ABS(J122:J141-S8)), ABS(J122:J141-S8), 0))</f>
-        <v>12724</v>
-      </c>
-      <c r="Z8" s="1">
-        <f t="array" ref="Z8">INDEX(K122:K141, MATCH(MIN(ABS(K122:K141-T8)), ABS(K122:K141-T8), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA8" s="1">
-        <f t="array" ref="AA8">INDEX(L122:L141, MATCH(MIN(ABS(L122:L141-U8)), ABS(L122:L141-U8), 0))</f>
-        <v>13646</v>
-      </c>
-      <c r="AB8" s="1">
-        <f t="array" ref="AB8">INDEX(M122:M141, MATCH(MIN(ABS(M122:M141-V8)), ABS(M122:M141-V8), 0))</f>
-        <v>2398</v>
-      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="1">
-        <f>INDEX(D122:D141, MATCH(Y8,J122:J141, FALSE), 1)</f>
-        <v>402100000</v>
-      </c>
-      <c r="AF8" s="1">
-        <f>INDEX(D122:D141, MATCH(Z8,K122:K141, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG8" s="1">
-        <f>INDEX(D122:D141, MATCH(AA8,L122:L141, FALSE), 1)</f>
-        <v>402100000</v>
-      </c>
-      <c r="AH8" s="1">
-        <f>INDEX(D122:D141, MATCH(AB8,M122:M141, FALSE), 1)</f>
-        <v>603100000</v>
-      </c>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
     </row>
     <row r="9" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1764,61 +1437,23 @@
         <v>2530</v>
       </c>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="S9" s="2">
-        <f>AVERAGE(J142:J161)</f>
-        <v>12325.85</v>
-      </c>
-      <c r="T9" s="2">
-        <f t="shared" ref="T9:V9" si="7">AVERAGE(K142:K161)</f>
-        <v>922</v>
-      </c>
-      <c r="U9" s="2">
-        <f t="shared" si="7"/>
-        <v>13247.85</v>
-      </c>
-      <c r="V9" s="2">
-        <f t="shared" si="7"/>
-        <v>2535.6</v>
-      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <f t="array" ref="Y9">INDEX(J142:J161, MATCH(MIN(ABS(J142:J161-S9)), ABS(J142:J161-S9), 0))</f>
-        <v>12248</v>
-      </c>
-      <c r="Z9" s="2">
-        <f t="array" ref="Z9">INDEX(K142:K161, MATCH(MIN(ABS(K142:K161-T9)), ABS(K142:K161-T9), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA9" s="2">
-        <f t="array" ref="AA9">INDEX(L142:L161, MATCH(MIN(ABS(L142:L161-U9)), ABS(L142:L161-U9), 0))</f>
-        <v>13170</v>
-      </c>
-      <c r="AB9" s="2">
-        <f t="array" ref="AB9">INDEX(M142:M161, MATCH(MIN(ABS(M142:M161-V9)), ABS(M142:M161-V9), 0))</f>
-        <v>2540</v>
-      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
-        <f>INDEX(D142:D161, MATCH(Y9,J142:J161, FALSE), 1)</f>
-        <v>50300000</v>
-      </c>
-      <c r="AF9" s="2">
-        <f>INDEX(D142:D161, MATCH(Z9,K142:K161, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG9" s="2">
-        <f>INDEX(D142:D161, MATCH(AA9,L142:L161, FALSE), 1)</f>
-        <v>50300000</v>
-      </c>
-      <c r="AH9" s="2">
-        <f>INDEX(D142:D161, MATCH(AB9,M142:M161, FALSE), 1)</f>
-        <v>452300000</v>
-      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1860,64 +1495,24 @@
       <c r="M10">
         <v>2277</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="S10" s="3">
-        <f>AVERAGE(J162:J181)</f>
-        <v>11020</v>
-      </c>
-      <c r="T10" s="3">
-        <f t="shared" ref="T10:V10" si="8">AVERAGE(K162:K181)</f>
-        <v>922</v>
-      </c>
-      <c r="U10" s="3">
-        <f t="shared" si="8"/>
-        <v>11942</v>
-      </c>
-      <c r="V10" s="3">
-        <f t="shared" si="8"/>
-        <v>1754.05</v>
-      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="3">
-        <f t="array" ref="Y10">INDEX(J162:J181, MATCH(MIN(ABS(J162:J181-S10)), ABS(J162:J181-S10), 0))</f>
-        <v>11517</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="array" ref="Z10">INDEX(K162:K181, MATCH(MIN(ABS(K162:K181-T10)), ABS(K162:K181-T10), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="array" ref="AA10">INDEX(L162:L181, MATCH(MIN(ABS(L162:L181-U10)), ABS(L162:L181-U10), 0))</f>
-        <v>12439</v>
-      </c>
-      <c r="AB10" s="3">
-        <f t="array" ref="AB10">INDEX(M162:M181, MATCH(MIN(ABS(M162:M181-V10)), ABS(M162:M181-V10), 0))</f>
-        <v>1967</v>
-      </c>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="3">
-        <f>INDEX(D162:D181, MATCH(Y10,J162:J181, FALSE), 1)</f>
-        <v>603100000</v>
-      </c>
-      <c r="AF10" s="3">
-        <f>INDEX(D162:D181, MATCH(Z10,K162:K181, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG10" s="3">
-        <f>INDEX(D162:D181, MATCH(AA10,L162:L181, FALSE), 1)</f>
-        <v>603100000</v>
-      </c>
-      <c r="AH10" s="3">
-        <f>INDEX(D162:D181, MATCH(AB10,M162:M181, FALSE), 1)</f>
-        <v>603100000</v>
-      </c>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1960,61 +1555,23 @@
         <v>2489</v>
       </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="S11" s="1">
-        <f>AVERAGE(J182:J201)</f>
-        <v>12593.5</v>
-      </c>
-      <c r="T11" s="1">
-        <f t="shared" ref="T11:V11" si="9">AVERAGE(K182:K201)</f>
-        <v>922</v>
-      </c>
-      <c r="U11" s="1">
-        <f t="shared" si="9"/>
-        <v>13515.5</v>
-      </c>
-      <c r="V11" s="1">
-        <f t="shared" si="9"/>
-        <v>2969.8</v>
-      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1">
-        <f t="array" ref="Y11">INDEX(J182:J201, MATCH(MIN(ABS(J182:J201-S11)), ABS(J182:J201-S11), 0))</f>
-        <v>12706</v>
-      </c>
-      <c r="Z11" s="1">
-        <f t="array" ref="Z11">INDEX(K182:K201, MATCH(MIN(ABS(K182:K201-T11)), ABS(K182:K201-T11), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA11" s="1">
-        <f t="array" ref="AA11">INDEX(L182:L201, MATCH(MIN(ABS(L182:L201-U11)), ABS(L182:L201-U11), 0))</f>
-        <v>13628</v>
-      </c>
-      <c r="AB11" s="1">
-        <f t="array" ref="AB11">INDEX(M182:M201, MATCH(MIN(ABS(M182:M201-V11)), ABS(M182:M201-V11), 0))</f>
-        <v>2976</v>
-      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="1">
-        <f>INDEX(D182:D201, MATCH(Y11,J182:J201, FALSE), 1)</f>
-        <v>854300000</v>
-      </c>
-      <c r="AF11" s="1">
-        <f>INDEX(D182:D201, MATCH(Z11,K182:K201, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG11" s="1">
-        <f>INDEX(D182:D201, MATCH(AA11,L182:L201, FALSE), 1)</f>
-        <v>854300000</v>
-      </c>
-      <c r="AH11" s="1">
-        <f>INDEX(D182:D201, MATCH(AB11,M182:M201, FALSE), 1)</f>
-        <v>854300000</v>
-      </c>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2057,61 +1614,23 @@
         <v>2522</v>
       </c>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="S12" s="1">
-        <f>AVERAGE(J202:J221)</f>
-        <v>11680.5</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" ref="T12:V12" si="10">AVERAGE(K202:K221)</f>
-        <v>922</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" si="10"/>
-        <v>12602.5</v>
-      </c>
-      <c r="V12" s="1">
-        <f t="shared" si="10"/>
-        <v>2196.3000000000002</v>
-      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1">
-        <f t="array" ref="Y12">INDEX(J202:J221, MATCH(MIN(ABS(J202:J221-S12)), ABS(J202:J221-S12), 0))</f>
-        <v>11720</v>
-      </c>
-      <c r="Z12" s="1">
-        <f t="array" ref="Z12">INDEX(K202:K221, MATCH(MIN(ABS(K202:K221-T12)), ABS(K202:K221-T12), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA12" s="1">
-        <f t="array" ref="AA12">INDEX(L202:L221, MATCH(MIN(ABS(L202:L221-U12)), ABS(L202:L221-U12), 0))</f>
-        <v>12642</v>
-      </c>
-      <c r="AB12" s="1">
-        <f t="array" ref="AB12">INDEX(M202:M221, MATCH(MIN(ABS(M202:M221-V12)), ABS(M202:M221-V12), 0))</f>
-        <v>2222</v>
-      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="1">
-        <f>INDEX(D202:D221, MATCH(Y12,J202:J221, FALSE), 1)</f>
-        <v>502600000</v>
-      </c>
-      <c r="AF12" s="1">
-        <f>INDEX(D202:D221, MATCH(Z12,K202:K221, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG12" s="1">
-        <f>INDEX(D202:D221, MATCH(AA12,L202:L221, FALSE), 1)</f>
-        <v>502600000</v>
-      </c>
-      <c r="AH12" s="1">
-        <f>INDEX(D202:D221, MATCH(AB12,M202:M221, FALSE), 1)</f>
-        <v>954800000</v>
-      </c>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
     </row>
     <row r="13" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2154,61 +1673,23 @@
         <v>2447</v>
       </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="S13" s="2">
-        <f>AVERAGE(J222:J241)</f>
-        <v>12721.25</v>
-      </c>
-      <c r="T13" s="2">
-        <f t="shared" ref="T13:V13" si="11">AVERAGE(K222:K241)</f>
-        <v>922</v>
-      </c>
-      <c r="U13" s="2">
-        <f t="shared" si="11"/>
-        <v>13643.25</v>
-      </c>
-      <c r="V13" s="2">
-        <f t="shared" si="11"/>
-        <v>2402.0500000000002</v>
-      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <f t="array" ref="Y13">INDEX(J222:J241, MATCH(MIN(ABS(J222:J241-S13)), ABS(J222:J241-S13), 0))</f>
-        <v>12790</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="array" ref="Z13">INDEX(K222:K241, MATCH(MIN(ABS(K222:K241-T13)), ABS(K222:K241-T13), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA13" s="2">
-        <f t="array" ref="AA13">INDEX(L222:L241, MATCH(MIN(ABS(L222:L241-U13)), ABS(L222:L241-U13), 0))</f>
-        <v>13712</v>
-      </c>
-      <c r="AB13" s="2">
-        <f t="array" ref="AB13">INDEX(M222:M241, MATCH(MIN(ABS(M222:M241-V13)), ABS(M222:M241-V13), 0))</f>
-        <v>2416</v>
-      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="2">
-        <f>INDEX(D222:D241, MATCH(Y13,J222:J241, FALSE), 1)</f>
-        <v>854300000</v>
-      </c>
-      <c r="AF13" s="2">
-        <f>INDEX(D222:D241, MATCH(Z13,K222:K241, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG13" s="2">
-        <f>INDEX(D222:D241, MATCH(AA13,L222:L241, FALSE), 1)</f>
-        <v>854300000</v>
-      </c>
-      <c r="AH13" s="2">
-        <f>INDEX(D222:D241, MATCH(AB13,M222:M241, FALSE), 1)</f>
-        <v>603100000</v>
-      </c>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2250,60 +1731,6 @@
       <c r="M14">
         <v>2276</v>
       </c>
-      <c r="Q14" t="s">
-        <v>16</v>
-      </c>
-      <c r="R14">
-        <v>1.2</v>
-      </c>
-      <c r="S14">
-        <f>AVERAGE(J242:J261)</f>
-        <v>10101.799999999999</v>
-      </c>
-      <c r="T14">
-        <f t="shared" ref="T14:V14" si="12">AVERAGE(K242:K261)</f>
-        <v>922</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="12"/>
-        <v>11023.8</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="12"/>
-        <v>1772.9</v>
-      </c>
-      <c r="Y14">
-        <f t="array" ref="Y14">INDEX(J242:J261, MATCH(MIN(ABS(J242:J261-S14)), ABS(J242:J261-S14), 0))</f>
-        <v>9795</v>
-      </c>
-      <c r="Z14">
-        <f t="array" ref="Z14">INDEX(K242:K261, MATCH(MIN(ABS(K242:K261-T14)), ABS(K242:K261-T14), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA14">
-        <f t="array" ref="AA14">INDEX(L242:L261, MATCH(MIN(ABS(L242:L261-U14)), ABS(L242:L261-U14), 0))</f>
-        <v>10717</v>
-      </c>
-      <c r="AB14">
-        <f t="array" ref="AB14">INDEX(M242:M261, MATCH(MIN(ABS(M242:M261-V14)), ABS(M242:M261-V14), 0))</f>
-        <v>1667</v>
-      </c>
-      <c r="AE14">
-        <f>INDEX(D242:D261, MATCH(Y14,J242:J261, FALSE), 1)</f>
-        <v>301600000</v>
-      </c>
-      <c r="AF14">
-        <f>INDEX(D242:D261, MATCH(Z14,K242:K261, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG14">
-        <f>INDEX(D242:D261, MATCH(AA14,L242:L261, FALSE), 1)</f>
-        <v>301600000</v>
-      </c>
-      <c r="AH14">
-        <f>INDEX(D242:D261, MATCH(AB14,M242:M261, FALSE), 1)</f>
-        <v>301600000</v>
-      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2345,57 +1772,6 @@
       <c r="M15">
         <v>2630</v>
       </c>
-      <c r="R15">
-        <v>0.8</v>
-      </c>
-      <c r="S15">
-        <f>AVERAGE(J262:J281)</f>
-        <v>10871.9</v>
-      </c>
-      <c r="T15">
-        <f t="shared" ref="T15:V15" si="13">AVERAGE(K262:K281)</f>
-        <v>922</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="13"/>
-        <v>11793.9</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="13"/>
-        <v>2054.25</v>
-      </c>
-      <c r="Y15">
-        <f t="array" ref="Y15">INDEX(J262:J281, MATCH(MIN(ABS(J262:J281-S15)), ABS(J262:J281-S15), 0))</f>
-        <v>10961</v>
-      </c>
-      <c r="Z15">
-        <f t="array" ref="Z15">INDEX(K262:K281, MATCH(MIN(ABS(K262:K281-T15)), ABS(K262:K281-T15), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA15">
-        <f t="array" ref="AA15">INDEX(L262:L281, MATCH(MIN(ABS(L262:L281-U15)), ABS(L262:L281-U15), 0))</f>
-        <v>11883</v>
-      </c>
-      <c r="AB15">
-        <f t="array" ref="AB15">INDEX(M262:M281, MATCH(MIN(ABS(M262:M281-V15)), ABS(M262:M281-V15), 0))</f>
-        <v>2094</v>
-      </c>
-      <c r="AE15">
-        <f>INDEX(D262:D281, MATCH(Y15,J262:J281, FALSE), 1)</f>
-        <v>603100000</v>
-      </c>
-      <c r="AF15">
-        <f>INDEX(D262:D281, MATCH(Z15,K262:K281, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG15">
-        <f>INDEX(D262:D281, MATCH(AA15,L262:L281, FALSE), 1)</f>
-        <v>603100000</v>
-      </c>
-      <c r="AH15">
-        <f>INDEX(D262:D281, MATCH(AB15,M262:M281, FALSE), 1)</f>
-        <v>904500000</v>
-      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2437,59 +1813,8 @@
       <c r="M16">
         <v>2382</v>
       </c>
-      <c r="R16">
-        <v>0.6</v>
-      </c>
-      <c r="S16">
-        <f>AVERAGE(J282:J301)</f>
-        <v>11244.8</v>
-      </c>
-      <c r="T16">
-        <f t="shared" ref="T16:V16" si="14">AVERAGE(K282:K301)</f>
-        <v>922</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="14"/>
-        <v>12166.8</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="14"/>
-        <v>2114.8000000000002</v>
-      </c>
-      <c r="Y16">
-        <f t="array" ref="Y16">INDEX(J282:J301, MATCH(MIN(ABS(J282:J301-S16)), ABS(J282:J301-S16), 0))</f>
-        <v>11264</v>
-      </c>
-      <c r="Z16">
-        <f t="array" ref="Z16">INDEX(K282:K301, MATCH(MIN(ABS(K282:K301-T16)), ABS(K282:K301-T16), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA16">
-        <f t="array" ref="AA16">INDEX(L282:L301, MATCH(MIN(ABS(L282:L301-U16)), ABS(L282:L301-U16), 0))</f>
-        <v>12186</v>
-      </c>
-      <c r="AB16">
-        <f t="array" ref="AB16">INDEX(M282:M301, MATCH(MIN(ABS(M282:M301-V16)), ABS(M282:M301-V16), 0))</f>
-        <v>2136</v>
-      </c>
-      <c r="AE16">
-        <f>INDEX(D282:D301, MATCH(Y16,J282:J301, FALSE), 1)</f>
-        <v>753800000</v>
-      </c>
-      <c r="AF16">
-        <f>INDEX(D282:D301, MATCH(Z16,K282:K301, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG16">
-        <f>INDEX(D282:D301, MATCH(AA16,L282:L301, FALSE), 1)</f>
-        <v>753800000</v>
-      </c>
-      <c r="AH16">
-        <f>INDEX(D282:D301, MATCH(AB16,M282:M301, FALSE), 1)</f>
-        <v>904500000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2529,59 +1854,8 @@
       <c r="M17">
         <v>2339</v>
       </c>
-      <c r="R17">
-        <v>0.4</v>
-      </c>
-      <c r="S17">
-        <f>AVERAGE(J302:J321)</f>
-        <v>11349.8</v>
-      </c>
-      <c r="T17">
-        <f t="shared" ref="T17:V17" si="15">AVERAGE(K302:K321)</f>
-        <v>922</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="15"/>
-        <v>12271.8</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="15"/>
-        <v>2195.4</v>
-      </c>
-      <c r="Y17">
-        <f t="array" ref="Y17">INDEX(J302:J321, MATCH(MIN(ABS(J302:J321-S17)), ABS(J302:J321-S17), 0))</f>
-        <v>11352</v>
-      </c>
-      <c r="Z17">
-        <f t="array" ref="Z17">INDEX(K302:K321, MATCH(MIN(ABS(K302:K321-T17)), ABS(K302:K321-T17), 0))</f>
-        <v>922</v>
-      </c>
-      <c r="AA17">
-        <f t="array" ref="AA17">INDEX(L302:L321, MATCH(MIN(ABS(L302:L321-U17)), ABS(L302:L321-U17), 0))</f>
-        <v>12274</v>
-      </c>
-      <c r="AB17">
-        <f t="array" ref="AB17">INDEX(M302:M321, MATCH(MIN(ABS(M302:M321-V17)), ABS(M302:M321-V17), 0))</f>
-        <v>2198</v>
-      </c>
-      <c r="AE17">
-        <f>INDEX(D302:D321, MATCH(Y17,J302:J321, FALSE), 1)</f>
-        <v>351800000</v>
-      </c>
-      <c r="AF17">
-        <f>INDEX(D302:D321, MATCH(Z17,K302:K321, FALSE), 1)</f>
-        <v>100000</v>
-      </c>
-      <c r="AG17">
-        <f>INDEX(D302:D321, MATCH(AA17,L302:L321, FALSE), 1)</f>
-        <v>351800000</v>
-      </c>
-      <c r="AH17">
-        <f>INDEX(D302:D321, MATCH(AB17,M302:M321, FALSE), 1)</f>
-        <v>201100000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2622,7 +1896,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2663,7 +1937,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2704,7 +1978,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2745,7 +2019,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2786,7 +2060,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2827,7 +2101,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2868,7 +2142,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2909,7 +2183,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -2950,7 +2224,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2991,7 +2265,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3032,7 +2306,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3073,7 +2347,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -3114,7 +2388,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -3155,7 +2429,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
